--- a/Analisi/Analisi_Dei_Requisiti.xlsx
+++ b/Analisi/Analisi_Dei_Requisiti.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,93 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Priorità</t>
+  </si>
+  <si>
+    <t>Versione</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Sub-ID</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>REQ-001</t>
+  </si>
+  <si>
+    <t>Raccolta Informazioni</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Requisiti</t>
+  </si>
+  <si>
+    <t>Cercare le versioni di apache e php</t>
+  </si>
+  <si>
+    <t>REQ-002</t>
+  </si>
+  <si>
+    <t>Creare Il WebServer</t>
+  </si>
+  <si>
+    <t>Creare una macchina virtuale</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Installare apache e php</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Configurare il WebServer</t>
+  </si>
+  <si>
+    <t>REQ-003</t>
+  </si>
+  <si>
+    <t>Creare Il Form Di Inserimento Dati</t>
+  </si>
+  <si>
+    <t>Creare un form che controlla i dati inseriti</t>
+  </si>
+  <si>
+    <t>Generare dei dati</t>
+  </si>
+  <si>
+    <t>Generare un file csv o xml che contiene i dati</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +104,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,19 +136,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +443,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisi/Analisi_Dei_Requisiti.xlsx
+++ b/Analisi/Analisi_Dei_Requisiti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>REQ-001</t>
   </si>
   <si>
-    <t>Raccolta Informazioni</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -52,43 +49,76 @@
     <t>Requisiti</t>
   </si>
   <si>
-    <t>Cercare le versioni di apache e php</t>
-  </si>
-  <si>
     <t>REQ-002</t>
   </si>
   <si>
-    <t>Creare Il WebServer</t>
-  </si>
-  <si>
-    <t>Creare una macchina virtuale</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
-    <t>Installare apache e php</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
-    <t>Configurare il WebServer</t>
-  </si>
-  <si>
     <t>REQ-003</t>
   </si>
   <si>
-    <t>Creare Il Form Di Inserimento Dati</t>
-  </si>
-  <si>
-    <t>Creare un form che controlla i dati inseriti</t>
-  </si>
-  <si>
-    <t>Generare dei dati</t>
-  </si>
-  <si>
-    <t>Generare un file csv o xml che contiene i dati</t>
+    <t>Creare la Macchina Virtuale</t>
+  </si>
+  <si>
+    <t>Bisogna trovare la giusta versione di Windows</t>
+  </si>
+  <si>
+    <t>Bisogna installare correttamente Windows</t>
+  </si>
+  <si>
+    <t>Cercare i software</t>
+  </si>
+  <si>
+    <t>Bisogna consultare il sito di samtinfo per le versioni giuste di php e apache</t>
+  </si>
+  <si>
+    <t>Bisogna trovare le giuste versioni di php e apache</t>
+  </si>
+  <si>
+    <t>Creare il webserver</t>
+  </si>
+  <si>
+    <t>Bisogna configurare correttamente php e apache</t>
+  </si>
+  <si>
+    <t>Bisogna installare le realise corrette di C++</t>
+  </si>
+  <si>
+    <t>REQ-004</t>
+  </si>
+  <si>
+    <t>Bisogna creare la parte grafica del form</t>
+  </si>
+  <si>
+    <t>Creare il form</t>
+  </si>
+  <si>
+    <t>Bisogna fare un controllo dei dati inseriti</t>
+  </si>
+  <si>
+    <t>REQ-005</t>
+  </si>
+  <si>
+    <t>Programmare il form</t>
+  </si>
+  <si>
+    <t>Bisogna fare in modo che i dati inseriti vengano presi e concatenati</t>
+  </si>
+  <si>
+    <t>Bisogna fare in modo che i dati controllati vengano immessi in un file CSV</t>
+  </si>
+  <si>
+    <t>REQ-006</t>
+  </si>
+  <si>
+    <t>Consegnare il progetto</t>
+  </si>
+  <si>
+    <t>Bisogna consegnare il progetto sul proprio spazio personale</t>
   </si>
 </sst>
 </file>
@@ -444,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B37"/>
+  <dimension ref="A4:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +536,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,23 +598,15 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,18 +665,188 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
